--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07888687572180821</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="H2">
-        <v>0.07888687572180821</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="I2">
-        <v>0.0003274955989568118</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="J2">
-        <v>0.0003274955989568118</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.07888687572180821</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="N2">
-        <v>0.07888687572180821</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="O2">
-        <v>0.0003274955989568118</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="P2">
-        <v>0.0003274955989568118</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="Q2">
-        <v>0.006223139161148013</v>
+        <v>0.04269692117877777</v>
       </c>
       <c r="R2">
-        <v>0.006223139161148013</v>
+        <v>0.3842722906089999</v>
       </c>
       <c r="S2">
-        <v>1.072533673360809E-07</v>
+        <v>6.925738642167018E-07</v>
       </c>
       <c r="T2">
-        <v>1.072533673360809E-07</v>
+        <v>6.944503557091312E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07888687572180821</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="H3">
-        <v>0.07888687572180821</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="I3">
-        <v>0.0003274955989568118</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="J3">
-        <v>0.0003274955989568118</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>119.209911168307</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="N3">
-        <v>119.209911168307</v>
+        <v>0.900838</v>
       </c>
       <c r="O3">
-        <v>0.4948950113999794</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="P3">
-        <v>0.4948950113999794</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="Q3">
-        <v>9.40409744714203</v>
+        <v>0.06204741929844444</v>
       </c>
       <c r="R3">
-        <v>9.40409744714203</v>
+        <v>0.5584267736859999</v>
       </c>
       <c r="S3">
-        <v>0.0001620759381791745</v>
+        <v>1.006452450476846E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001620759381791745</v>
+        <v>1.009179379052169E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07888687572180821</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="H4">
-        <v>0.07888687572180821</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="I4">
-        <v>0.0003274955989568118</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="J4">
-        <v>0.0003274955989568118</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.327086713961</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="N4">
-        <v>121.327086713961</v>
+        <v>368.389915</v>
       </c>
       <c r="O4">
-        <v>0.5036843780351318</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="P4">
-        <v>0.5036843780351318</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="Q4">
-        <v>9.571114811293288</v>
+        <v>25.3737559043061</v>
       </c>
       <c r="R4">
-        <v>9.571114811293288</v>
+        <v>228.3638031387549</v>
       </c>
       <c r="S4">
-        <v>0.0001649544170698047</v>
+        <v>0.0004115800317956246</v>
       </c>
       <c r="T4">
-        <v>0.0001649544170698047</v>
+        <v>0.0004126951856702107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,123 +708,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07888687572180821</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="H5">
-        <v>0.07888687572180821</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="I5">
-        <v>0.0003274955989568118</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="J5">
-        <v>0.0003274955989568118</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.263308651297294</v>
+        <v>123.982821</v>
       </c>
       <c r="N5">
-        <v>0.263308651297294</v>
+        <v>371.948463</v>
       </c>
       <c r="O5">
-        <v>0.00109311496593189</v>
+        <v>0.4993399150794692</v>
       </c>
       <c r="P5">
-        <v>0.00109311496593189</v>
+        <v>0.5000159247563409</v>
       </c>
       <c r="Q5">
-        <v>0.02077159685136657</v>
+        <v>25.618859596479</v>
       </c>
       <c r="R5">
-        <v>0.02077159685136657</v>
+        <v>230.569736368311</v>
       </c>
       <c r="S5">
-        <v>3.579903404965192E-07</v>
+        <v>0.0004155557847664579</v>
       </c>
       <c r="T5">
-        <v>3.579903404965192E-07</v>
+        <v>0.0004166817107290641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>119.209911168307</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="H6">
-        <v>119.209911168307</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="I6">
-        <v>0.4948950113999794</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="J6">
-        <v>0.4948950113999794</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.07888687572180821</v>
+        <v>1.0070605</v>
       </c>
       <c r="N6">
-        <v>0.07888687572180821</v>
+        <v>2.014121</v>
       </c>
       <c r="O6">
-        <v>0.0003274955989568118</v>
+        <v>0.004055928881872175</v>
       </c>
       <c r="P6">
-        <v>0.0003274955989568118</v>
+        <v>0.002707613216797098</v>
       </c>
       <c r="Q6">
-        <v>9.40409744714203</v>
+        <v>0.2080912609228333</v>
       </c>
       <c r="R6">
-        <v>9.40409744714203</v>
+        <v>1.248547565537</v>
       </c>
       <c r="S6">
-        <v>0.0001620759381791745</v>
+        <v>3.375385501067132E-06</v>
       </c>
       <c r="T6">
-        <v>0.0001620759381791745</v>
+        <v>2.256353950561515E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>119.209911168307</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="H7">
-        <v>119.209911168307</v>
+        <v>0.900838</v>
       </c>
       <c r="I7">
-        <v>0.4948950113999794</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="J7">
-        <v>0.4948950113999794</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>119.209911168307</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="N7">
-        <v>119.209911168307</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="O7">
-        <v>0.4948950113999794</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="P7">
-        <v>0.4948950113999794</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="Q7">
-        <v>14211.00292075565</v>
+        <v>0.06204741929844444</v>
       </c>
       <c r="R7">
-        <v>14211.00292075565</v>
+        <v>0.5584267736859999</v>
       </c>
       <c r="S7">
-        <v>0.2449210723085858</v>
+        <v>1.006452450476846E-06</v>
       </c>
       <c r="T7">
-        <v>0.2449210723085858</v>
+        <v>1.009179379052169E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>119.209911168307</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="H8">
-        <v>119.209911168307</v>
+        <v>0.900838</v>
       </c>
       <c r="I8">
-        <v>0.4948950113999794</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="J8">
-        <v>0.4948950113999794</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>121.327086713961</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="N8">
-        <v>121.327086713961</v>
+        <v>0.900838</v>
       </c>
       <c r="O8">
-        <v>0.5036843780351318</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="P8">
-        <v>0.5036843780351318</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="Q8">
-        <v>14463.39122948077</v>
+        <v>0.09016767802711112</v>
       </c>
       <c r="R8">
-        <v>14463.39122948077</v>
+        <v>0.8115091022440001</v>
       </c>
       <c r="S8">
-        <v>0.2492708860096881</v>
+        <v>1.46258267515839E-06</v>
       </c>
       <c r="T8">
-        <v>0.2492708860096881</v>
+        <v>1.466545463950621E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,185 +956,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>119.209911168307</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="H9">
-        <v>119.209911168307</v>
+        <v>0.900838</v>
       </c>
       <c r="I9">
-        <v>0.4948950113999794</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="J9">
-        <v>0.4948950113999794</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.263308651297294</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="N9">
-        <v>0.263308651297294</v>
+        <v>368.389915</v>
       </c>
       <c r="O9">
-        <v>0.00109311496593189</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="P9">
-        <v>0.00109311496593189</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="Q9">
-        <v>31.38900093099715</v>
+        <v>36.87329269430777</v>
       </c>
       <c r="R9">
-        <v>31.38900093099715</v>
+        <v>331.85963424877</v>
       </c>
       <c r="S9">
-        <v>0.0005409771435263507</v>
+        <v>0.0005981105452723709</v>
       </c>
       <c r="T9">
-        <v>0.0005409771435263507</v>
+        <v>0.0005997310935022776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>121.327086713961</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="H10">
-        <v>121.327086713961</v>
+        <v>0.900838</v>
       </c>
       <c r="I10">
-        <v>0.5036843780351318</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="J10">
-        <v>0.5036843780351318</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.07888687572180821</v>
+        <v>123.982821</v>
       </c>
       <c r="N10">
-        <v>0.07888687572180821</v>
+        <v>371.948463</v>
       </c>
       <c r="O10">
-        <v>0.0003274955989568118</v>
+        <v>0.4993399150794692</v>
       </c>
       <c r="P10">
-        <v>0.0003274955989568118</v>
+        <v>0.5000159247563409</v>
       </c>
       <c r="Q10">
-        <v>9.571114811293288</v>
+        <v>37.229478834666</v>
       </c>
       <c r="R10">
-        <v>9.571114811293288</v>
+        <v>335.065309511994</v>
       </c>
       <c r="S10">
-        <v>0.0001649544170698047</v>
+        <v>0.0006038881330889589</v>
       </c>
       <c r="T10">
-        <v>0.0001649544170698047</v>
+        <v>0.0006055243353811177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>121.327086713961</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="H11">
-        <v>121.327086713961</v>
+        <v>0.900838</v>
       </c>
       <c r="I11">
-        <v>0.5036843780351318</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="J11">
-        <v>0.5036843780351318</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>119.209911168307</v>
+        <v>1.0070605</v>
       </c>
       <c r="N11">
-        <v>119.209911168307</v>
+        <v>2.014121</v>
       </c>
       <c r="O11">
-        <v>0.4948950113999794</v>
+        <v>0.004055928881872175</v>
       </c>
       <c r="P11">
-        <v>0.4948950113999794</v>
+        <v>0.002707613216797098</v>
       </c>
       <c r="Q11">
-        <v>14463.39122948077</v>
+        <v>0.3023994555663334</v>
       </c>
       <c r="R11">
-        <v>14463.39122948077</v>
+        <v>1.814396733398</v>
       </c>
       <c r="S11">
-        <v>0.2492708860096881</v>
+        <v>4.9051302458478E-06</v>
       </c>
       <c r="T11">
-        <v>0.2492708860096881</v>
+        <v>3.278946954277782E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.327086713961</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="H12">
-        <v>121.327086713961</v>
+        <v>368.389915</v>
       </c>
       <c r="I12">
-        <v>0.5036843780351318</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="J12">
-        <v>0.5036843780351318</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.327086713961</v>
+        <v>0.2066323333333333</v>
       </c>
       <c r="N12">
-        <v>121.327086713961</v>
+        <v>0.6198969999999999</v>
       </c>
       <c r="O12">
-        <v>0.5036843780351318</v>
+        <v>0.0008322102283778431</v>
       </c>
       <c r="P12">
-        <v>0.5036843780351318</v>
+        <v>0.0008333368800845977</v>
       </c>
       <c r="Q12">
-        <v>14720.26197049701</v>
+        <v>25.3737559043061</v>
       </c>
       <c r="R12">
-        <v>14720.26197049701</v>
+        <v>228.3638031387549</v>
       </c>
       <c r="S12">
-        <v>0.2536979526766375</v>
+        <v>0.0004115800317956246</v>
       </c>
       <c r="T12">
-        <v>0.2536979526766375</v>
+        <v>0.0004126951856702107</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,247 +1204,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.327086713961</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="H13">
-        <v>121.327086713961</v>
+        <v>368.389915</v>
       </c>
       <c r="I13">
-        <v>0.5036843780351318</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="J13">
-        <v>0.5036843780351318</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.263308651297294</v>
+        <v>0.3002793333333333</v>
       </c>
       <c r="N13">
-        <v>0.263308651297294</v>
+        <v>0.900838</v>
       </c>
       <c r="O13">
-        <v>0.00109311496593189</v>
+        <v>0.001209372843732813</v>
       </c>
       <c r="P13">
-        <v>0.00109311496593189</v>
+        <v>0.001211010100680676</v>
       </c>
       <c r="Q13">
-        <v>31.94647156848291</v>
+        <v>36.87329269430777</v>
       </c>
       <c r="R13">
-        <v>31.94647156848291</v>
+        <v>331.85963424877</v>
       </c>
       <c r="S13">
-        <v>0.0005505849317362983</v>
+        <v>0.0005981105452723709</v>
       </c>
       <c r="T13">
-        <v>0.0005505849317362983</v>
+        <v>0.0005997310935022776</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.263308651297294</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="H14">
-        <v>0.263308651297294</v>
+        <v>368.389915</v>
       </c>
       <c r="I14">
-        <v>0.00109311496593189</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="J14">
-        <v>0.00109311496593189</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07888687572180821</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="N14">
-        <v>0.07888687572180821</v>
+        <v>368.389915</v>
       </c>
       <c r="O14">
-        <v>0.0003274955989568118</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="P14">
-        <v>0.0003274955989568118</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="Q14">
-        <v>0.02077159685136657</v>
+        <v>15079.01438596747</v>
       </c>
       <c r="R14">
-        <v>0.02077159685136657</v>
+        <v>135711.1294737072</v>
       </c>
       <c r="S14">
-        <v>3.579903404965192E-07</v>
+        <v>0.2445921385792921</v>
       </c>
       <c r="T14">
-        <v>3.579903404965192E-07</v>
+        <v>0.2452548477730303</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.263308651297294</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="H15">
-        <v>0.263308651297294</v>
+        <v>368.389915</v>
       </c>
       <c r="I15">
-        <v>0.00109311496593189</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="J15">
-        <v>0.00109311496593189</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>119.209911168307</v>
+        <v>123.982821</v>
       </c>
       <c r="N15">
-        <v>119.209911168307</v>
+        <v>371.948463</v>
       </c>
       <c r="O15">
-        <v>0.4948950113999794</v>
+        <v>0.4993399150794692</v>
       </c>
       <c r="P15">
-        <v>0.4948950113999794</v>
+        <v>0.5000159247563409</v>
       </c>
       <c r="Q15">
-        <v>31.38900093099715</v>
+        <v>15224.6736298834</v>
       </c>
       <c r="R15">
-        <v>31.38900093099715</v>
+        <v>137022.0626689506</v>
       </c>
       <c r="S15">
-        <v>0.0005409771435263507</v>
+        <v>0.2469548331865999</v>
       </c>
       <c r="T15">
-        <v>0.0005409771435263507</v>
+        <v>0.2476239439738127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.263308651297294</v>
+        <v>122.7966383333333</v>
       </c>
       <c r="H16">
-        <v>0.263308651297294</v>
+        <v>368.389915</v>
       </c>
       <c r="I16">
-        <v>0.00109311496593189</v>
+        <v>0.494562572966548</v>
       </c>
       <c r="J16">
-        <v>0.00109311496593189</v>
+        <v>0.4952321150460967</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.327086713961</v>
+        <v>1.0070605</v>
       </c>
       <c r="N16">
-        <v>121.327086713961</v>
+        <v>2.014121</v>
       </c>
       <c r="O16">
-        <v>0.5036843780351318</v>
+        <v>0.004055928881872175</v>
       </c>
       <c r="P16">
-        <v>0.5036843780351318</v>
+        <v>0.002707613216797098</v>
       </c>
       <c r="Q16">
-        <v>31.94647156848291</v>
+        <v>123.6636439982858</v>
       </c>
       <c r="R16">
-        <v>31.94647156848291</v>
+        <v>741.9818639897151</v>
       </c>
       <c r="S16">
-        <v>0.0005505849317362983</v>
+        <v>0.002005910623588037</v>
       </c>
       <c r="T16">
-        <v>0.0005505849317362983</v>
+        <v>0.001340897020081192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>123.982821</v>
+      </c>
+      <c r="H17">
+        <v>371.948463</v>
+      </c>
+      <c r="I17">
+        <v>0.4993399150794692</v>
+      </c>
+      <c r="J17">
+        <v>0.5000159247563409</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2066323333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.6198969999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.0008322102283778431</v>
+      </c>
+      <c r="P17">
+        <v>0.0008333368800845977</v>
+      </c>
+      <c r="Q17">
+        <v>25.618859596479</v>
+      </c>
+      <c r="R17">
+        <v>230.569736368311</v>
+      </c>
+      <c r="S17">
+        <v>0.0004155557847664579</v>
+      </c>
+      <c r="T17">
+        <v>0.0004166817107290641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>123.982821</v>
+      </c>
+      <c r="H18">
+        <v>371.948463</v>
+      </c>
+      <c r="I18">
+        <v>0.4993399150794692</v>
+      </c>
+      <c r="J18">
+        <v>0.5000159247563409</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3002793333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.900838</v>
+      </c>
+      <c r="O18">
+        <v>0.001209372843732813</v>
+      </c>
+      <c r="P18">
+        <v>0.001211010100680676</v>
+      </c>
+      <c r="Q18">
+        <v>37.229478834666</v>
+      </c>
+      <c r="R18">
+        <v>335.065309511994</v>
+      </c>
+      <c r="S18">
+        <v>0.0006038881330889589</v>
+      </c>
+      <c r="T18">
+        <v>0.0006055243353811177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>123.982821</v>
+      </c>
+      <c r="H19">
+        <v>371.948463</v>
+      </c>
+      <c r="I19">
+        <v>0.4993399150794692</v>
+      </c>
+      <c r="J19">
+        <v>0.5000159247563409</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>122.7966383333333</v>
+      </c>
+      <c r="N19">
+        <v>368.389915</v>
+      </c>
+      <c r="O19">
+        <v>0.494562572966548</v>
+      </c>
+      <c r="P19">
+        <v>0.4952321150460967</v>
+      </c>
+      <c r="Q19">
+        <v>15224.6736298834</v>
+      </c>
+      <c r="R19">
+        <v>137022.0626689506</v>
+      </c>
+      <c r="S19">
+        <v>0.2469548331865999</v>
+      </c>
+      <c r="T19">
+        <v>0.2476239439738127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>123.982821</v>
+      </c>
+      <c r="H20">
+        <v>371.948463</v>
+      </c>
+      <c r="I20">
+        <v>0.4993399150794692</v>
+      </c>
+      <c r="J20">
+        <v>0.5000159247563409</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>123.982821</v>
+      </c>
+      <c r="N20">
+        <v>371.948463</v>
+      </c>
+      <c r="O20">
+        <v>0.4993399150794692</v>
+      </c>
+      <c r="P20">
+        <v>0.5000159247563409</v>
+      </c>
+      <c r="Q20">
+        <v>15371.73990311804</v>
+      </c>
+      <c r="R20">
+        <v>138345.6591280624</v>
+      </c>
+      <c r="S20">
+        <v>0.2493403507915715</v>
+      </c>
+      <c r="T20">
+        <v>0.2500159250099388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>123.982821</v>
+      </c>
+      <c r="H21">
+        <v>371.948463</v>
+      </c>
+      <c r="I21">
+        <v>0.4993399150794692</v>
+      </c>
+      <c r="J21">
+        <v>0.5000159247563409</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.0070605</v>
+      </c>
+      <c r="N21">
+        <v>2.014121</v>
+      </c>
+      <c r="O21">
+        <v>0.004055928881872175</v>
+      </c>
+      <c r="P21">
+        <v>0.002707613216797098</v>
+      </c>
+      <c r="Q21">
+        <v>124.8582017076705</v>
+      </c>
+      <c r="R21">
+        <v>749.1492102460231</v>
+      </c>
+      <c r="S21">
+        <v>0.002025287183442418</v>
+      </c>
+      <c r="T21">
+        <v>0.001353849726479292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0070605</v>
+      </c>
+      <c r="H22">
+        <v>2.014121</v>
+      </c>
+      <c r="I22">
+        <v>0.004055928881872175</v>
+      </c>
+      <c r="J22">
+        <v>0.002707613216797098</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2066323333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.6198969999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.0008322102283778431</v>
+      </c>
+      <c r="P22">
+        <v>0.0008333368800845977</v>
+      </c>
+      <c r="Q22">
+        <v>0.2080912609228333</v>
+      </c>
+      <c r="R22">
+        <v>1.248547565537</v>
+      </c>
+      <c r="S22">
+        <v>3.375385501067132E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.256353950561515E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0070605</v>
+      </c>
+      <c r="H23">
+        <v>2.014121</v>
+      </c>
+      <c r="I23">
+        <v>0.004055928881872175</v>
+      </c>
+      <c r="J23">
+        <v>0.002707613216797098</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.3002793333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.900838</v>
+      </c>
+      <c r="O23">
+        <v>0.001209372843732813</v>
+      </c>
+      <c r="P23">
+        <v>0.001211010100680676</v>
+      </c>
+      <c r="Q23">
+        <v>0.3023994555663334</v>
+      </c>
+      <c r="R23">
+        <v>1.814396733398</v>
+      </c>
+      <c r="S23">
+        <v>4.9051302458478E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.278946954277782E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0070605</v>
+      </c>
+      <c r="H24">
+        <v>2.014121</v>
+      </c>
+      <c r="I24">
+        <v>0.004055928881872175</v>
+      </c>
+      <c r="J24">
+        <v>0.002707613216797098</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>122.7966383333333</v>
+      </c>
+      <c r="N24">
+        <v>368.389915</v>
+      </c>
+      <c r="O24">
+        <v>0.494562572966548</v>
+      </c>
+      <c r="P24">
+        <v>0.4952321150460967</v>
+      </c>
+      <c r="Q24">
+        <v>123.6636439982858</v>
+      </c>
+      <c r="R24">
+        <v>741.9818639897151</v>
+      </c>
+      <c r="S24">
+        <v>0.002005910623588037</v>
+      </c>
+      <c r="T24">
+        <v>0.001340897020081192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.263308651297294</v>
-      </c>
-      <c r="H17">
-        <v>0.263308651297294</v>
-      </c>
-      <c r="I17">
-        <v>0.00109311496593189</v>
-      </c>
-      <c r="J17">
-        <v>0.00109311496593189</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.263308651297294</v>
-      </c>
-      <c r="N17">
-        <v>0.263308651297294</v>
-      </c>
-      <c r="O17">
-        <v>0.00109311496593189</v>
-      </c>
-      <c r="P17">
-        <v>0.00109311496593189</v>
-      </c>
-      <c r="Q17">
-        <v>0.06933144584799998</v>
-      </c>
-      <c r="R17">
-        <v>0.06933144584799998</v>
-      </c>
-      <c r="S17">
-        <v>1.194900328744277E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.194900328744277E-06</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0070605</v>
+      </c>
+      <c r="H25">
+        <v>2.014121</v>
+      </c>
+      <c r="I25">
+        <v>0.004055928881872175</v>
+      </c>
+      <c r="J25">
+        <v>0.002707613216797098</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>123.982821</v>
+      </c>
+      <c r="N25">
+        <v>371.948463</v>
+      </c>
+      <c r="O25">
+        <v>0.4993399150794692</v>
+      </c>
+      <c r="P25">
+        <v>0.5000159247563409</v>
+      </c>
+      <c r="Q25">
+        <v>124.8582017076705</v>
+      </c>
+      <c r="R25">
+        <v>749.1492102460231</v>
+      </c>
+      <c r="S25">
+        <v>0.002025287183442418</v>
+      </c>
+      <c r="T25">
+        <v>0.001353849726479292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0070605</v>
+      </c>
+      <c r="H26">
+        <v>2.014121</v>
+      </c>
+      <c r="I26">
+        <v>0.004055928881872175</v>
+      </c>
+      <c r="J26">
+        <v>0.002707613216797098</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.0070605</v>
+      </c>
+      <c r="N26">
+        <v>2.014121</v>
+      </c>
+      <c r="O26">
+        <v>0.004055928881872175</v>
+      </c>
+      <c r="P26">
+        <v>0.002707613216797098</v>
+      </c>
+      <c r="Q26">
+        <v>1.01417085066025</v>
+      </c>
+      <c r="R26">
+        <v>4.056683402641001</v>
+      </c>
+      <c r="S26">
+        <v>1.645055909480487E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.331169331774328E-06</v>
       </c>
     </row>
   </sheetData>
